--- a/rag/Result.xlsx
+++ b/rag/Result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keven\Desktop\倪宇健\NYU\大三\DS 301\Project\NYU-Policy-LLM\rag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0582587-50CD-4CEB-96F8-4FADA493DEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD379E4-6702-4170-809D-ACCA97560876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Gemini 2.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,34 @@
   </si>
   <si>
     <t>Main Policy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stading Committee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Degree Requirement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemini 1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,17 +117,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,65 +416,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="22.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.06640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.46484375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="E1" s="4"/>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="E2" s="4"/>
+      <c r="F2" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5">
         <v>0.8</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="5">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>150</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.87</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.83</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/rag/Result.xlsx
+++ b/rag/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keven\Desktop\倪宇健\NYU\大三\DS 301\Project\NYU-Policy-LLM\rag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD379E4-6702-4170-809D-ACCA97560876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4BD9A0-E18C-456F-B23D-4E0755302048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Gemini 2.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,14 @@
   </si>
   <si>
     <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemini 1.5 RAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Llama3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,19 +125,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
@@ -428,12 +434,14 @@
     <col min="2" max="2" width="10.06640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.46484375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.46484375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.46484375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -444,133 +452,175 @@
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>30</v>
-      </c>
-      <c r="C2" s="5">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="6">
+      <c r="E2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="H2" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>40</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>20</v>
       </c>
-      <c r="C4" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="H4" s="2">
         <v>0.9</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>20</v>
-      </c>
-      <c r="C5" s="8">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4">
         <v>0.8</v>
       </c>
-      <c r="D5" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2">
+      <c r="D5" s="4">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="E5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>20</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.85</v>
       </c>
-      <c r="D6" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="H6" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>20</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="4">
         <v>0.95</v>
       </c>
-      <c r="D7" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
+      <c r="E7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>150</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="3">
+        <v>140</v>
+      </c>
+      <c r="C8" s="7">
         <v>0.87</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.88</v>
       </c>
-      <c r="F8" s="2">
+      <c r="E8" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.83</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>

--- a/rag/Result.xlsx
+++ b/rag/Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keven\Desktop\倪宇健\NYU\大三\DS 301\Project\NYU-Policy-LLM\rag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4C37E9-7F14-475F-9083-DE9DB089985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6687BAAD-BF97-4C18-9D96-C0B8CDD3E921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Gemini 2.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>Mistral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemma 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -148,6 +152,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -428,43 +433,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="22.265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.46484375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.46484375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.46484375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.46484375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.46484375" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.86328125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="1"/>
+    <col min="10" max="10" width="19.06640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.86328125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>12</v>
@@ -475,8 +482,11 @@
       <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -490,10 +500,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="3">
         <v>0.7</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.9</v>
       </c>
       <c r="H2" s="3">
         <v>0.45</v>
@@ -504,25 +514,31 @@
       <c r="J2" s="3">
         <v>0.85</v>
       </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>20</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D3" s="4">
         <v>0.85</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.95</v>
-      </c>
       <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.75</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
       </c>
       <c r="H3" s="4">
         <v>0.75</v>
@@ -533,19 +549,22 @@
       <c r="J3" s="3">
         <v>0.95</v>
       </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>20</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="4">
         <v>0.95</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.8</v>
       </c>
       <c r="E4" s="3">
         <v>0.95</v>
@@ -562,8 +581,11 @@
       <c r="J4" s="3">
         <v>0.9</v>
       </c>
+      <c r="L4" s="3">
+        <v>0.95</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -571,16 +593,16 @@
         <v>40</v>
       </c>
       <c r="C5" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.8</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.7</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.55000000000000004</v>
       </c>
       <c r="H5" s="4">
         <v>0.7</v>
@@ -591,8 +613,11 @@
       <c r="J5" s="4">
         <v>0.72499999999999998</v>
       </c>
+      <c r="L5" s="3">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -600,16 +625,16 @@
         <v>20</v>
       </c>
       <c r="C6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="3">
         <v>0.81</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.9</v>
-      </c>
       <c r="E6" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="F6" s="3">
         <v>0.7</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.85</v>
       </c>
       <c r="H6" s="3">
         <v>0.65</v>
@@ -620,25 +645,28 @@
       <c r="J6" s="3">
         <v>0.95</v>
       </c>
+      <c r="L6" s="3">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>20</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D7" s="4">
         <v>0.8</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.95</v>
-      </c>
       <c r="E7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="3">
         <v>0.7</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.8</v>
       </c>
       <c r="H7" s="3">
         <v>0.85</v>
@@ -649,25 +677,28 @@
       <c r="J7" s="3">
         <v>0.55000000000000004</v>
       </c>
+      <c r="L7" s="3">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>140</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="D8" s="5">
         <v>0.87</v>
       </c>
-      <c r="D8" s="3">
-        <v>0.88</v>
-      </c>
       <c r="E8" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.75</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.84</v>
       </c>
       <c r="H8" s="3">
         <v>0.72</v>
@@ -677,6 +708,9 @@
       </c>
       <c r="J8" s="3">
         <v>0.82</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
